--- a/out/CE/falselink/Figori_algorithm_19.xlsx
+++ b/out/CE/falselink/Figori_algorithm_19.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
+        <v>0.47339999999999999</v>
+      </c>
+      <c r="B1">
+        <v>0.49669999999999997</v>
+      </c>
+      <c r="C1">
+        <v>0.49130000000000001</v>
+      </c>
+      <c r="D1">
+        <v>0.48089999999999999</v>
+      </c>
+      <c r="E1">
+        <v>0.48509999999999998</v>
+      </c>
+      <c r="F1">
+        <v>0.50149999999999995</v>
+      </c>
+      <c r="G1">
+        <v>0.49959999999999999</v>
+      </c>
+      <c r="H1">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="I1">
         <v>0.51129999999999998</v>
       </c>
-      <c r="B1">
-        <v>0.4884</v>
-      </c>
-      <c r="C1">
-        <v>0.49270000000000003</v>
-      </c>
-      <c r="D1">
-        <v>0.48170000000000002</v>
-      </c>
-      <c r="E1">
-        <v>0.48209999999999997</v>
-      </c>
-      <c r="F1">
-        <v>0.49859999999999999</v>
-      </c>
-      <c r="G1">
-        <v>0.51419999999999999</v>
-      </c>
-      <c r="H1">
-        <v>0.49780000000000002</v>
-      </c>
-      <c r="I1">
-        <v>0.49459999999999998</v>
-      </c>
       <c r="J1">
-        <v>0.50490000000000002</v>
+        <v>0.4869</v>
       </c>
       <c r="K1">
-        <v>0.48959999999999998</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="L1">
-        <v>0.52539999999999998</v>
+        <v>0.51039999999999996</v>
       </c>
       <c r="M1">
-        <v>0.52559999999999996</v>
+        <v>0.47689999999999999</v>
       </c>
       <c r="N1">
-        <v>0.48609999999999998</v>
+        <v>0.49980000000000002</v>
       </c>
       <c r="O1">
-        <v>0.49769999999999998</v>
+        <v>0.47470000000000001</v>
       </c>
       <c r="P1">
-        <v>0.50280000000000002</v>
+        <v>0.50360000000000005</v>
       </c>
       <c r="Q1">
-        <v>0.52249999999999996</v>
+        <v>0.48870000000000002</v>
       </c>
       <c r="R1">
-        <v>0.52310000000000001</v>
+        <v>0.50270000000000004</v>
       </c>
       <c r="S1">
-        <v>0.51270000000000004</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="T1">
-        <v>0.49869999999999998</v>
+        <v>0.45529999999999998</v>
       </c>
       <c r="U1">
-        <v>0.50029999999999997</v>
+        <v>0.5101</v>
       </c>
       <c r="V1">
-        <v>0.4788</v>
+        <v>0.48270000000000002</v>
       </c>
       <c r="W1">
-        <v>0.47639999999999999</v>
+        <v>0.4965</v>
       </c>
       <c r="X1">
-        <v>0.50060000000000004</v>
+        <v>0.51090000000000002</v>
       </c>
       <c r="Y1">
-        <v>0.4914</v>
+        <v>0.48120000000000002</v>
       </c>
       <c r="Z1">
-        <v>0.49769999999999998</v>
+        <v>0.47189999999999999</v>
       </c>
       <c r="AA1">
-        <v>0.50460000000000005</v>
+        <v>0.49309999999999998</v>
       </c>
       <c r="AB1">
-        <v>0.48799999999999999</v>
+        <v>0.48970000000000002</v>
       </c>
       <c r="AC1">
-        <v>0.48759999999999998</v>
+        <v>0.49690000000000001</v>
       </c>
       <c r="AD1">
-        <v>0.47870000000000001</v>
+        <v>0.51490000000000002</v>
       </c>
       <c r="AE1">
-        <v>0.47349999999999998</v>
+        <v>0.49809999999999999</v>
       </c>
       <c r="AF1">
-        <v>0.48039999999999999</v>
+        <v>0.49609999999999999</v>
       </c>
       <c r="AG1">
-        <v>0.51619999999999999</v>
+        <v>0.52839999999999998</v>
       </c>
       <c r="AH1">
-        <v>0.52210000000000001</v>
+        <v>0.51629999999999998</v>
       </c>
       <c r="AI1">
-        <v>0.48039999999999999</v>
+        <v>0.50960000000000005</v>
       </c>
       <c r="AJ1">
-        <v>0.47370000000000001</v>
+        <v>0.495</v>
       </c>
       <c r="AK1">
-        <v>0.51060000000000005</v>
+        <v>0.50190000000000001</v>
       </c>
       <c r="AL1">
-        <v>0.51419999999999999</v>
+        <v>0.52229999999999999</v>
       </c>
       <c r="AM1">
-        <v>0.51029999999999998</v>
+        <v>0.50780000000000003</v>
       </c>
       <c r="AN1">
-        <v>0.4889</v>
+        <v>0.49159999999999998</v>
       </c>
       <c r="AO1">
-        <v>0.49669999999999997</v>
+        <v>0.47489999999999999</v>
       </c>
       <c r="AP1">
-        <v>0.49580000000000002</v>
+        <v>0.49059999999999998</v>
       </c>
       <c r="AQ1">
-        <v>0.47470000000000001</v>
+        <v>0.50719999999999998</v>
       </c>
       <c r="AR1">
-        <v>0.4824</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="AS1">
-        <v>0.51780000000000004</v>
+        <v>0.49440000000000001</v>
       </c>
       <c r="AT1">
-        <v>0.47889999999999999</v>
+        <v>0.51149999999999995</v>
       </c>
       <c r="AU1">
-        <v>0.497</v>
+        <v>0.51390000000000002</v>
       </c>
       <c r="AV1">
-        <v>0.50519999999999998</v>
+        <v>0.49330000000000002</v>
       </c>
       <c r="AW1">
-        <v>0.49709999999999999</v>
+        <v>0.49480000000000002</v>
       </c>
       <c r="AX1">
-        <v>0.49580000000000002</v>
+        <v>0.47839999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.48580000000000001</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="B2">
+        <v>0.4718</v>
+      </c>
+      <c r="C2">
+        <v>0.48010000000000003</v>
+      </c>
+      <c r="D2">
+        <v>0.4738</v>
+      </c>
+      <c r="E2">
+        <v>0.49170000000000003</v>
+      </c>
+      <c r="F2">
+        <v>0.48020000000000002</v>
+      </c>
+      <c r="G2">
+        <v>0.50519999999999998</v>
+      </c>
+      <c r="H2">
+        <v>0.43459999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.52080000000000004</v>
+      </c>
+      <c r="J2">
+        <v>0.46389999999999998</v>
+      </c>
+      <c r="K2">
+        <v>0.46239999999999998</v>
+      </c>
+      <c r="L2">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="M2">
+        <v>0.49880000000000002</v>
+      </c>
+      <c r="N2">
+        <v>0.48680000000000001</v>
+      </c>
+      <c r="O2">
+        <v>0.46910000000000002</v>
+      </c>
+      <c r="P2">
+        <v>0.51849999999999996</v>
+      </c>
+      <c r="Q2">
+        <v>0.4793</v>
+      </c>
+      <c r="R2">
+        <v>0.49109999999999998</v>
+      </c>
+      <c r="S2">
+        <v>0.52139999999999997</v>
+      </c>
+      <c r="T2">
+        <v>0.44640000000000002</v>
+      </c>
+      <c r="U2">
+        <v>0.49959999999999999</v>
+      </c>
+      <c r="V2">
+        <v>0.47360000000000002</v>
+      </c>
+      <c r="W2">
+        <v>0.48680000000000001</v>
+      </c>
+      <c r="X2">
+        <v>0.51949999999999996</v>
+      </c>
+      <c r="Y2">
+        <v>0.46210000000000001</v>
+      </c>
+      <c r="Z2">
+        <v>0.4642</v>
+      </c>
+      <c r="AA2">
+        <v>0.48780000000000001</v>
+      </c>
+      <c r="AB2">
+        <v>0.48459999999999998</v>
+      </c>
+      <c r="AC2">
+        <v>0.496</v>
+      </c>
+      <c r="AD2">
+        <v>0.51439999999999997</v>
+      </c>
+      <c r="AE2">
+        <v>0.47749999999999998</v>
+      </c>
+      <c r="AF2">
+        <v>0.49059999999999998</v>
+      </c>
+      <c r="AG2">
+        <v>0.53690000000000004</v>
+      </c>
+      <c r="AH2">
+        <v>0.48970000000000002</v>
+      </c>
+      <c r="AI2">
+        <v>0.50439999999999996</v>
+      </c>
+      <c r="AJ2">
         <v>0.49030000000000001</v>
       </c>
-      <c r="C2">
-        <v>0.48459999999999998</v>
-      </c>
-      <c r="D2">
-        <v>0.4642</v>
-      </c>
-      <c r="E2">
-        <v>0.47410000000000002</v>
-      </c>
-      <c r="F2">
-        <v>0.46650000000000003</v>
-      </c>
-      <c r="G2">
-        <v>0.50009999999999999</v>
-      </c>
-      <c r="H2">
-        <v>0.48820000000000002</v>
-      </c>
-      <c r="I2">
-        <v>0.47360000000000002</v>
-      </c>
-      <c r="J2">
-        <v>0.48130000000000001</v>
-      </c>
-      <c r="K2">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="L2">
-        <v>0.51890000000000003</v>
-      </c>
-      <c r="M2">
-        <v>0.51519999999999999</v>
-      </c>
-      <c r="N2">
-        <v>0.44769999999999999</v>
-      </c>
-      <c r="O2">
-        <v>0.4975</v>
-      </c>
-      <c r="P2">
-        <v>0.50829999999999997</v>
-      </c>
-      <c r="Q2">
-        <v>0.51239999999999997</v>
-      </c>
-      <c r="R2">
-        <v>0.49170000000000003</v>
-      </c>
-      <c r="S2">
-        <v>0.5151</v>
-      </c>
-      <c r="T2">
-        <v>0.495</v>
-      </c>
-      <c r="U2">
-        <v>0.50719999999999998</v>
-      </c>
-      <c r="V2">
+      <c r="AK2">
+        <v>0.48530000000000001</v>
+      </c>
+      <c r="AL2">
+        <v>0.52310000000000001</v>
+      </c>
+      <c r="AM2">
+        <v>0.50039999999999996</v>
+      </c>
+      <c r="AN2">
+        <v>0.47749999999999998</v>
+      </c>
+      <c r="AO2">
+        <v>0.4713</v>
+      </c>
+      <c r="AP2">
+        <v>0.47889999999999999</v>
+      </c>
+      <c r="AQ2">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="AR2">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="AS2">
+        <v>0.48139999999999999</v>
+      </c>
+      <c r="AT2">
+        <v>0.48870000000000002</v>
+      </c>
+      <c r="AU2">
+        <v>0.50629999999999997</v>
+      </c>
+      <c r="AV2">
         <v>0.48049999999999998</v>
       </c>
-      <c r="W2">
-        <v>0.48720000000000002</v>
-      </c>
-      <c r="X2">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="Y2">
-        <v>0.47360000000000002</v>
-      </c>
-      <c r="Z2">
-        <v>0.49440000000000001</v>
-      </c>
-      <c r="AA2">
-        <v>0.49559999999999998</v>
-      </c>
-      <c r="AB2">
-        <v>0.4743</v>
-      </c>
-      <c r="AC2">
-        <v>0.47089999999999999</v>
-      </c>
-      <c r="AD2">
-        <v>0.49859999999999999</v>
-      </c>
-      <c r="AE2">
-        <v>0.47860000000000003</v>
-      </c>
-      <c r="AF2">
+      <c r="AW2">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="AX2">
         <v>0.45689999999999997</v>
-      </c>
-      <c r="AG2">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="AH2">
-        <v>0.52159999999999995</v>
-      </c>
-      <c r="AI2">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="AJ2">
-        <v>0.45279999999999998</v>
-      </c>
-      <c r="AK2">
-        <v>0.46949999999999997</v>
-      </c>
-      <c r="AL2">
-        <v>0.50239999999999996</v>
-      </c>
-      <c r="AM2">
-        <v>0.49220000000000003</v>
-      </c>
-      <c r="AN2">
-        <v>0.46639999999999998</v>
-      </c>
-      <c r="AO2">
-        <v>0.49830000000000002</v>
-      </c>
-      <c r="AP2">
-        <v>0.49259999999999998</v>
-      </c>
-      <c r="AQ2">
-        <v>0.45129999999999998</v>
-      </c>
-      <c r="AR2">
-        <v>0.48080000000000001</v>
-      </c>
-      <c r="AS2">
-        <v>0.54090000000000005</v>
-      </c>
-      <c r="AT2">
-        <v>0.46629999999999999</v>
-      </c>
-      <c r="AU2">
-        <v>0.48870000000000002</v>
-      </c>
-      <c r="AV2">
-        <v>0.49719999999999998</v>
-      </c>
-      <c r="AW2">
-        <v>0.49</v>
-      </c>
-      <c r="AX2">
-        <v>0.48699999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.47410000000000002</v>
+        <v>0.4698</v>
       </c>
       <c r="B3">
-        <v>0.51139999999999997</v>
+        <v>0.45639999999999997</v>
       </c>
       <c r="C3">
-        <v>0.46089999999999998</v>
+        <v>0.47739999999999999</v>
       </c>
       <c r="D3">
-        <v>0.45639999999999997</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="E3">
-        <v>0.4577</v>
+        <v>0.48959999999999998</v>
       </c>
       <c r="F3">
-        <v>0.4551</v>
+        <v>0.44719999999999999</v>
       </c>
       <c r="G3">
-        <v>0.49</v>
+        <v>0.49380000000000002</v>
       </c>
       <c r="H3">
-        <v>0.47489999999999999</v>
+        <v>0.43030000000000002</v>
       </c>
       <c r="I3">
-        <v>0.49220000000000003</v>
+        <v>0.49990000000000001</v>
       </c>
       <c r="J3">
-        <v>0.48409999999999997</v>
+        <v>0.45669999999999999</v>
       </c>
       <c r="K3">
-        <v>0.47610000000000002</v>
+        <v>0.45950000000000002</v>
       </c>
       <c r="L3">
-        <v>0.51939999999999997</v>
+        <v>0.48170000000000002</v>
       </c>
       <c r="M3">
-        <v>0.51180000000000003</v>
+        <v>0.48449999999999999</v>
       </c>
       <c r="N3">
-        <v>0.45369999999999999</v>
+        <v>0.47910000000000003</v>
       </c>
       <c r="O3">
-        <v>0.50109999999999999</v>
+        <v>0.44259999999999999</v>
       </c>
       <c r="P3">
-        <v>0.49120000000000003</v>
+        <v>0.49590000000000001</v>
       </c>
       <c r="Q3">
-        <v>0.49580000000000002</v>
+        <v>0.47449999999999998</v>
       </c>
       <c r="R3">
-        <v>0.47310000000000002</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="S3">
-        <v>0.51270000000000004</v>
+        <v>0.53339999999999999</v>
       </c>
       <c r="T3">
-        <v>0.44969999999999999</v>
+        <v>0.4279</v>
       </c>
       <c r="U3">
-        <v>0.49330000000000002</v>
+        <v>0.50609999999999999</v>
       </c>
       <c r="V3">
-        <v>0.4708</v>
+        <v>0.4294</v>
       </c>
       <c r="W3">
-        <v>0.4879</v>
+        <v>0.47720000000000001</v>
       </c>
       <c r="X3">
-        <v>0.48110000000000003</v>
+        <v>0.50049999999999994</v>
       </c>
       <c r="Y3">
-        <v>0.4698</v>
+        <v>0.44330000000000003</v>
       </c>
       <c r="Z3">
-        <v>0.51970000000000005</v>
+        <v>0.45650000000000002</v>
       </c>
       <c r="AA3">
-        <v>0.4733</v>
+        <v>0.4778</v>
       </c>
       <c r="AB3">
-        <v>0.43609999999999999</v>
+        <v>0.47020000000000001</v>
       </c>
       <c r="AC3">
-        <v>0.45610000000000001</v>
+        <v>0.4834</v>
       </c>
       <c r="AD3">
-        <v>0.4718</v>
+        <v>0.50460000000000005</v>
       </c>
       <c r="AE3">
-        <v>0.44409999999999999</v>
+        <v>0.48349999999999999</v>
       </c>
       <c r="AF3">
-        <v>0.47410000000000002</v>
+        <v>0.47760000000000002</v>
       </c>
       <c r="AG3">
-        <v>0.48809999999999998</v>
+        <v>0.5101</v>
       </c>
       <c r="AH3">
-        <v>0.50719999999999998</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="AI3">
-        <v>0.46929999999999999</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="AJ3">
-        <v>0.46250000000000002</v>
+        <v>0.49440000000000001</v>
       </c>
       <c r="AK3">
-        <v>0.46850000000000003</v>
+        <v>0.51759999999999995</v>
       </c>
       <c r="AL3">
-        <v>0.48780000000000001</v>
+        <v>0.50019999999999998</v>
       </c>
       <c r="AM3">
-        <v>0.4965</v>
+        <v>0.4637</v>
       </c>
       <c r="AN3">
-        <v>0.4536</v>
+        <v>0.47720000000000001</v>
       </c>
       <c r="AO3">
-        <v>0.47099999999999997</v>
+        <v>0.4657</v>
       </c>
       <c r="AP3">
-        <v>0.49909999999999999</v>
+        <v>0.4975</v>
       </c>
       <c r="AQ3">
-        <v>0.44729999999999998</v>
+        <v>0.47170000000000001</v>
       </c>
       <c r="AR3">
-        <v>0.4476</v>
+        <v>0.52480000000000004</v>
       </c>
       <c r="AS3">
-        <v>0.55089999999999995</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="AT3">
-        <v>0.44040000000000001</v>
+        <v>0.46729999999999999</v>
       </c>
       <c r="AU3">
-        <v>0.45429999999999998</v>
+        <v>0.50209999999999999</v>
       </c>
       <c r="AV3">
-        <v>0.4718</v>
+        <v>0.46639999999999998</v>
       </c>
       <c r="AW3">
-        <v>0.4713</v>
+        <v>0.45579999999999998</v>
       </c>
       <c r="AX3">
-        <v>0.49049999999999999</v>
+        <v>0.4526</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.4264</v>
+        <v>0.4914</v>
       </c>
       <c r="B4">
-        <v>0.49930000000000002</v>
+        <v>0.48080000000000001</v>
       </c>
       <c r="C4">
-        <v>0.47089999999999999</v>
+        <v>0.45590000000000003</v>
       </c>
       <c r="D4">
-        <v>0.4556</v>
+        <v>0.45879999999999999</v>
       </c>
       <c r="E4">
-        <v>0.44319999999999998</v>
+        <v>0.48809999999999998</v>
       </c>
       <c r="F4">
-        <v>0.4375</v>
+        <v>0.4476</v>
       </c>
       <c r="G4">
-        <v>0.51529999999999998</v>
+        <v>0.49619999999999997</v>
       </c>
       <c r="H4">
-        <v>0.46400000000000002</v>
+        <v>0.45319999999999999</v>
       </c>
       <c r="I4">
-        <v>0.51319999999999999</v>
+        <v>0.50370000000000004</v>
       </c>
       <c r="J4">
-        <v>0.47460000000000002</v>
+        <v>0.46879999999999999</v>
       </c>
       <c r="K4">
-        <v>0.46339999999999998</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="L4">
-        <v>0.49049999999999999</v>
+        <v>0.497</v>
       </c>
       <c r="M4">
-        <v>0.49990000000000001</v>
+        <v>0.47339999999999999</v>
       </c>
       <c r="N4">
-        <v>0.4456</v>
+        <v>0.4526</v>
       </c>
       <c r="O4">
-        <v>0.4824</v>
+        <v>0.46860000000000002</v>
       </c>
       <c r="P4">
-        <v>0.4793</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="Q4">
-        <v>0.52149999999999996</v>
+        <v>0.48230000000000001</v>
       </c>
       <c r="R4">
-        <v>0.47289999999999999</v>
+        <v>0.4844</v>
       </c>
       <c r="S4">
-        <v>0.49740000000000001</v>
+        <v>0.51160000000000005</v>
       </c>
       <c r="T4">
-        <v>0.4672</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="U4">
-        <v>0.50549999999999995</v>
+        <v>0.51990000000000003</v>
       </c>
       <c r="V4">
-        <v>0.45629999999999998</v>
+        <v>0.44969999999999999</v>
       </c>
       <c r="W4">
-        <v>0.48180000000000001</v>
+        <v>0.48110000000000003</v>
       </c>
       <c r="X4">
-        <v>0.45660000000000001</v>
+        <v>0.50139999999999996</v>
       </c>
       <c r="Y4">
-        <v>0.4955</v>
+        <v>0.4491</v>
       </c>
       <c r="Z4">
-        <v>0.49180000000000001</v>
+        <v>0.436</v>
       </c>
       <c r="AA4">
-        <v>0.45469999999999999</v>
+        <v>0.4662</v>
       </c>
       <c r="AB4">
-        <v>0.45150000000000001</v>
+        <v>0.47039999999999998</v>
       </c>
       <c r="AC4">
-        <v>0.45669999999999999</v>
+        <v>0.4662</v>
       </c>
       <c r="AD4">
-        <v>0.43099999999999999</v>
+        <v>0.49320000000000003</v>
       </c>
       <c r="AE4">
-        <v>0.44700000000000001</v>
+        <v>0.47710000000000002</v>
       </c>
       <c r="AF4">
-        <v>0.46329999999999999</v>
+        <v>0.47410000000000002</v>
       </c>
       <c r="AG4">
-        <v>0.48949999999999999</v>
+        <v>0.51939999999999997</v>
       </c>
       <c r="AH4">
-        <v>0.4788</v>
+        <v>0.47949999999999998</v>
       </c>
       <c r="AI4">
-        <v>0.44280000000000003</v>
+        <v>0.52869999999999995</v>
       </c>
       <c r="AJ4">
-        <v>0.46710000000000002</v>
+        <v>0.50180000000000002</v>
       </c>
       <c r="AK4">
-        <v>0.42320000000000002</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="AL4">
-        <v>0.49769999999999998</v>
+        <v>0.46689999999999998</v>
       </c>
       <c r="AM4">
-        <v>0.49409999999999998</v>
+        <v>0.4803</v>
       </c>
       <c r="AN4">
-        <v>0.46200000000000002</v>
+        <v>0.46639999999999998</v>
       </c>
       <c r="AO4">
-        <v>0.48010000000000003</v>
+        <v>0.433</v>
       </c>
       <c r="AP4">
+        <v>0.47410000000000002</v>
+      </c>
+      <c r="AQ4">
+        <v>0.46910000000000002</v>
+      </c>
+      <c r="AR4">
+        <v>0.52480000000000004</v>
+      </c>
+      <c r="AS4">
         <v>0.48459999999999998</v>
       </c>
-      <c r="AQ4">
-        <v>0.44669999999999999</v>
-      </c>
-      <c r="AR4">
-        <v>0.46310000000000001</v>
-      </c>
-      <c r="AS4">
-        <v>0.54069999999999996</v>
-      </c>
       <c r="AT4">
-        <v>0.41710000000000003</v>
+        <v>0.48089999999999999</v>
       </c>
       <c r="AU4">
-        <v>0.4844</v>
+        <v>0.50070000000000003</v>
       </c>
       <c r="AV4">
-        <v>0.46789999999999998</v>
+        <v>0.4526</v>
       </c>
       <c r="AW4">
-        <v>0.4602</v>
+        <v>0.43319999999999997</v>
       </c>
       <c r="AX4">
-        <v>0.49590000000000001</v>
+        <v>0.45129999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.45200000000000001</v>
+        <v>0.52349999999999997</v>
       </c>
       <c r="B5">
-        <v>0.53759999999999997</v>
+        <v>0.47639999999999999</v>
       </c>
       <c r="C5">
-        <v>0.48420000000000002</v>
+        <v>0.44119999999999998</v>
       </c>
       <c r="D5">
+        <v>0.47039999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.48680000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.44840000000000002</v>
+      </c>
+      <c r="G5">
+        <v>0.49780000000000002</v>
+      </c>
+      <c r="H5">
+        <v>0.44979999999999998</v>
+      </c>
+      <c r="I5">
+        <v>0.51570000000000005</v>
+      </c>
+      <c r="J5">
+        <v>0.45979999999999999</v>
+      </c>
+      <c r="K5">
+        <v>0.4854</v>
+      </c>
+      <c r="L5">
+        <v>0.47860000000000003</v>
+      </c>
+      <c r="M5">
+        <v>0.48259999999999997</v>
+      </c>
+      <c r="N5">
+        <v>0.46739999999999998</v>
+      </c>
+      <c r="O5">
+        <v>0.4556</v>
+      </c>
+      <c r="P5">
+        <v>0.46860000000000002</v>
+      </c>
+      <c r="Q5">
+        <v>0.48070000000000002</v>
+      </c>
+      <c r="R5">
+        <v>0.48920000000000002</v>
+      </c>
+      <c r="S5">
+        <v>0.49609999999999999</v>
+      </c>
+      <c r="T5">
+        <v>0.42249999999999999</v>
+      </c>
+      <c r="U5">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="V5">
+        <v>0.4299</v>
+      </c>
+      <c r="W5">
+        <v>0.46529999999999999</v>
+      </c>
+      <c r="X5">
+        <v>0.5171</v>
+      </c>
+      <c r="Y5">
+        <v>0.4345</v>
+      </c>
+      <c r="Z5">
+        <v>0.4748</v>
+      </c>
+      <c r="AA5">
         <v>0.46450000000000002</v>
       </c>
-      <c r="E5">
-        <v>0.44819999999999999</v>
-      </c>
-      <c r="F5">
-        <v>0.46210000000000001</v>
-      </c>
-      <c r="G5">
-        <v>0.5171</v>
-      </c>
-      <c r="H5">
-        <v>0.46789999999999998</v>
-      </c>
-      <c r="I5">
-        <v>0.49919999999999998</v>
-      </c>
-      <c r="J5">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="K5">
-        <v>0.47010000000000002</v>
-      </c>
-      <c r="L5">
-        <v>0.47839999999999999</v>
-      </c>
-      <c r="M5">
-        <v>0.4788</v>
-      </c>
-      <c r="N5">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="O5">
-        <v>0.49409999999999998</v>
-      </c>
-      <c r="P5">
-        <v>0.48820000000000002</v>
-      </c>
-      <c r="Q5">
-        <v>0.49530000000000002</v>
-      </c>
-      <c r="R5">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="S5">
-        <v>0.4859</v>
-      </c>
-      <c r="T5">
-        <v>0.48209999999999997</v>
-      </c>
-      <c r="U5">
-        <v>0.4975</v>
-      </c>
-      <c r="V5">
-        <v>0.442</v>
-      </c>
-      <c r="W5">
-        <v>0.44990000000000002</v>
-      </c>
-      <c r="X5">
-        <v>0.44650000000000001</v>
-      </c>
-      <c r="Y5">
-        <v>0.47870000000000001</v>
-      </c>
-      <c r="Z5">
-        <v>0.4531</v>
-      </c>
-      <c r="AA5">
-        <v>0.44750000000000001</v>
-      </c>
       <c r="AB5">
-        <v>0.433</v>
+        <v>0.46050000000000002</v>
       </c>
       <c r="AC5">
-        <v>0.45629999999999998</v>
+        <v>0.4718</v>
       </c>
       <c r="AD5">
-        <v>0.43530000000000002</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="AE5">
-        <v>0.45069999999999999</v>
+        <v>0.48259999999999997</v>
       </c>
       <c r="AF5">
-        <v>0.44359999999999999</v>
+        <v>0.47639999999999999</v>
       </c>
       <c r="AG5">
-        <v>0.50690000000000002</v>
+        <v>0.499</v>
       </c>
       <c r="AH5">
-        <v>0.46089999999999998</v>
+        <v>0.4849</v>
       </c>
       <c r="AI5">
-        <v>0.4587</v>
+        <v>0.50929999999999997</v>
       </c>
       <c r="AJ5">
-        <v>0.45169999999999999</v>
+        <v>0.51190000000000002</v>
       </c>
       <c r="AK5">
-        <v>0.4395</v>
+        <v>0.47610000000000002</v>
       </c>
       <c r="AL5">
-        <v>0.5111</v>
+        <v>0.48520000000000002</v>
       </c>
       <c r="AM5">
-        <v>0.52559999999999996</v>
+        <v>0.49880000000000002</v>
       </c>
       <c r="AN5">
-        <v>0.45150000000000001</v>
+        <v>0.47639999999999999</v>
       </c>
       <c r="AO5">
-        <v>0.47210000000000002</v>
+        <v>0.42720000000000002</v>
       </c>
       <c r="AP5">
-        <v>0.47549999999999998</v>
+        <v>0.46279999999999999</v>
       </c>
       <c r="AQ5">
-        <v>0.43859999999999999</v>
+        <v>0.48559999999999998</v>
       </c>
       <c r="AR5">
-        <v>0.49070000000000003</v>
+        <v>0.497</v>
       </c>
       <c r="AS5">
-        <v>0.53859999999999997</v>
+        <v>0.48149999999999998</v>
       </c>
       <c r="AT5">
-        <v>0.4254</v>
+        <v>0.45469999999999999</v>
       </c>
       <c r="AU5">
-        <v>0.505</v>
+        <v>0.47410000000000002</v>
       </c>
       <c r="AV5">
-        <v>0.46729999999999999</v>
+        <v>0.44130000000000003</v>
       </c>
       <c r="AW5">
-        <v>0.46939999999999998</v>
+        <v>0.44629999999999997</v>
       </c>
       <c r="AX5">
-        <v>0.50239999999999996</v>
+        <v>0.44230000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.46100000000000002</v>
+        <v>0.50580000000000003</v>
       </c>
       <c r="B6">
-        <v>0.50470000000000004</v>
+        <v>0.4748</v>
       </c>
       <c r="C6">
-        <v>0.48080000000000001</v>
+        <v>0.44540000000000002</v>
       </c>
       <c r="D6">
-        <v>0.45169999999999999</v>
+        <v>0.45939999999999998</v>
       </c>
       <c r="E6">
-        <v>0.45750000000000002</v>
+        <v>0.48880000000000001</v>
       </c>
       <c r="F6">
-        <v>0.46870000000000001</v>
+        <v>0.45369999999999999</v>
       </c>
       <c r="G6">
-        <v>0.51249999999999996</v>
+        <v>0.51559999999999995</v>
       </c>
       <c r="H6">
-        <v>0.47470000000000001</v>
+        <v>0.45960000000000001</v>
       </c>
       <c r="I6">
-        <v>0.49569999999999997</v>
+        <v>0.51680000000000004</v>
       </c>
       <c r="J6">
-        <v>0.50219999999999998</v>
+        <v>0.46960000000000002</v>
       </c>
       <c r="K6">
-        <v>0.48730000000000001</v>
+        <v>0.48759999999999998</v>
       </c>
       <c r="L6">
-        <v>0.4975</v>
+        <v>0.48270000000000002</v>
       </c>
       <c r="M6">
-        <v>0.48249999999999998</v>
+        <v>0.43340000000000001</v>
       </c>
       <c r="N6">
-        <v>0.43819999999999998</v>
+        <v>0.48170000000000002</v>
       </c>
       <c r="O6">
-        <v>0.4672</v>
+        <v>0.48070000000000002</v>
       </c>
       <c r="P6">
-        <v>0.47849999999999998</v>
+        <v>0.4667</v>
       </c>
       <c r="Q6">
-        <v>0.48459999999999998</v>
+        <v>0.47720000000000001</v>
       </c>
       <c r="R6">
-        <v>0.46899999999999997</v>
+        <v>0.49359999999999998</v>
       </c>
       <c r="S6">
-        <v>0.49609999999999999</v>
+        <v>0.47670000000000001</v>
       </c>
       <c r="T6">
-        <v>0.46589999999999998</v>
+        <v>0.43969999999999998</v>
       </c>
       <c r="U6">
-        <v>0.48649999999999999</v>
+        <v>0.50519999999999998</v>
       </c>
       <c r="V6">
-        <v>0.44240000000000002</v>
+        <v>0.43709999999999999</v>
       </c>
       <c r="W6">
-        <v>0.45760000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="X6">
-        <v>0.46500000000000002</v>
+        <v>0.50960000000000005</v>
       </c>
       <c r="Y6">
-        <v>0.50219999999999998</v>
+        <v>0.45860000000000001</v>
       </c>
       <c r="Z6">
-        <v>0.44</v>
+        <v>0.45860000000000001</v>
       </c>
       <c r="AA6">
-        <v>0.45469999999999999</v>
+        <v>0.4637</v>
       </c>
       <c r="AB6">
-        <v>0.42320000000000002</v>
+        <v>0.44640000000000002</v>
       </c>
       <c r="AC6">
-        <v>0.45519999999999999</v>
+        <v>0.44140000000000001</v>
       </c>
       <c r="AD6">
-        <v>0.46789999999999998</v>
+        <v>0.51139999999999997</v>
       </c>
       <c r="AE6">
-        <v>0.44280000000000003</v>
+        <v>0.46329999999999999</v>
       </c>
       <c r="AF6">
-        <v>0.44569999999999999</v>
+        <v>0.47449999999999998</v>
       </c>
       <c r="AG6">
-        <v>0.51639999999999997</v>
+        <v>0.47549999999999998</v>
       </c>
       <c r="AH6">
-        <v>0.48080000000000001</v>
+        <v>0.4733</v>
       </c>
       <c r="AI6">
-        <v>0.41649999999999998</v>
+        <v>0.49919999999999998</v>
       </c>
       <c r="AJ6">
-        <v>0.45760000000000001</v>
+        <v>0.50109999999999999</v>
       </c>
       <c r="AK6">
-        <v>0.4325</v>
+        <v>0.46260000000000001</v>
       </c>
       <c r="AL6">
-        <v>0.51090000000000002</v>
+        <v>0.49080000000000001</v>
       </c>
       <c r="AM6">
-        <v>0.51480000000000004</v>
+        <v>0.50490000000000002</v>
       </c>
       <c r="AN6">
-        <v>0.44850000000000001</v>
+        <v>0.46179999999999999</v>
       </c>
       <c r="AO6">
-        <v>0.47720000000000001</v>
+        <v>0.43130000000000002</v>
       </c>
       <c r="AP6">
-        <v>0.4657</v>
+        <v>0.47539999999999999</v>
       </c>
       <c r="AQ6">
-        <v>0.45240000000000002</v>
+        <v>0.4738</v>
       </c>
       <c r="AR6">
-        <v>0.49980000000000002</v>
+        <v>0.4753</v>
       </c>
       <c r="AS6">
-        <v>0.50319999999999998</v>
+        <v>0.46910000000000002</v>
       </c>
       <c r="AT6">
-        <v>0.42359999999999998</v>
+        <v>0.45929999999999999</v>
       </c>
       <c r="AU6">
-        <v>0.47460000000000002</v>
+        <v>0.46689999999999998</v>
       </c>
       <c r="AV6">
-        <v>0.46429999999999999</v>
+        <v>0.4294</v>
       </c>
       <c r="AW6">
-        <v>0.49419999999999997</v>
+        <v>0.47489999999999999</v>
       </c>
       <c r="AX6">
-        <v>0.48509999999999998</v>
+        <v>0.43990000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.48139999999999999</v>
+        <v>0.50149999999999995</v>
       </c>
       <c r="B7">
-        <v>0.51790000000000003</v>
+        <v>0.4667</v>
       </c>
       <c r="C7">
-        <v>0.47310000000000002</v>
+        <v>0.43659999999999999</v>
       </c>
       <c r="D7">
-        <v>0.43780000000000002</v>
+        <v>0.45440000000000003</v>
       </c>
       <c r="E7">
-        <v>0.44679999999999997</v>
+        <v>0.50129999999999997</v>
       </c>
       <c r="F7">
-        <v>0.47939999999999999</v>
+        <v>0.43359999999999999</v>
       </c>
       <c r="G7">
-        <v>0.49780000000000002</v>
+        <v>0.48870000000000002</v>
       </c>
       <c r="H7">
-        <v>0.49359999999999998</v>
+        <v>0.4637</v>
       </c>
       <c r="I7">
-        <v>0.48930000000000001</v>
+        <v>0.50060000000000004</v>
       </c>
       <c r="J7">
-        <v>0.48080000000000001</v>
+        <v>0.48070000000000002</v>
       </c>
       <c r="K7">
-        <v>0.49780000000000002</v>
+        <v>0.48630000000000001</v>
       </c>
       <c r="L7">
-        <v>0.48359999999999997</v>
+        <v>0.49809999999999999</v>
       </c>
       <c r="M7">
-        <v>0.48039999999999999</v>
+        <v>0.437</v>
       </c>
       <c r="N7">
-        <v>0.43919999999999998</v>
+        <v>0.49170000000000003</v>
       </c>
       <c r="O7">
-        <v>0.47249999999999998</v>
+        <v>0.44519999999999998</v>
       </c>
       <c r="P7">
-        <v>0.48570000000000002</v>
+        <v>0.48870000000000002</v>
       </c>
       <c r="Q7">
-        <v>0.49730000000000002</v>
+        <v>0.49340000000000001</v>
       </c>
       <c r="R7">
-        <v>0.46700000000000003</v>
+        <v>0.51239999999999997</v>
       </c>
       <c r="S7">
-        <v>0.50149999999999995</v>
+        <v>0.47</v>
       </c>
       <c r="T7">
+        <v>0.4677</v>
+      </c>
+      <c r="U7">
+        <v>0.52349999999999997</v>
+      </c>
+      <c r="V7">
+        <v>0.42349999999999999</v>
+      </c>
+      <c r="W7">
+        <v>0.4798</v>
+      </c>
+      <c r="X7">
+        <v>0.51629999999999998</v>
+      </c>
+      <c r="Y7">
+        <v>0.46210000000000001</v>
+      </c>
+      <c r="Z7">
+        <v>0.47360000000000002</v>
+      </c>
+      <c r="AA7">
+        <v>0.47989999999999999</v>
+      </c>
+      <c r="AB7">
+        <v>0.44429999999999997</v>
+      </c>
+      <c r="AC7">
         <v>0.4698</v>
       </c>
-      <c r="U7">
+      <c r="AD7">
         <v>0.50029999999999997</v>
       </c>
-      <c r="V7">
-        <v>0.4768</v>
-      </c>
-      <c r="W7">
-        <v>0.44030000000000002</v>
-      </c>
-      <c r="X7">
-        <v>0.48120000000000002</v>
-      </c>
-      <c r="Y7">
-        <v>0.46250000000000002</v>
-      </c>
-      <c r="Z7">
-        <v>0.45150000000000001</v>
-      </c>
-      <c r="AA7">
-        <v>0.44619999999999999</v>
-      </c>
-      <c r="AB7">
-        <v>0.43530000000000002</v>
-      </c>
-      <c r="AC7">
-        <v>0.4677</v>
-      </c>
-      <c r="AD7">
-        <v>0.46260000000000001</v>
-      </c>
       <c r="AE7">
-        <v>0.44419999999999998</v>
+        <v>0.4894</v>
       </c>
       <c r="AF7">
-        <v>0.44090000000000001</v>
+        <v>0.47860000000000003</v>
       </c>
       <c r="AG7">
-        <v>0.4914</v>
+        <v>0.48330000000000001</v>
       </c>
       <c r="AH7">
-        <v>0.46410000000000001</v>
+        <v>0.47220000000000001</v>
       </c>
       <c r="AI7">
-        <v>0.4173</v>
+        <v>0.48480000000000001</v>
       </c>
       <c r="AJ7">
-        <v>0.45169999999999999</v>
+        <v>0.50409999999999999</v>
       </c>
       <c r="AK7">
-        <v>0.44519999999999998</v>
+        <v>0.4783</v>
       </c>
       <c r="AL7">
-        <v>0.49490000000000001</v>
+        <v>0.48759999999999998</v>
       </c>
       <c r="AM7">
-        <v>0.5222</v>
+        <v>0.49320000000000003</v>
       </c>
       <c r="AN7">
-        <v>0.4365</v>
+        <v>0.4511</v>
       </c>
       <c r="AO7">
-        <v>0.48949999999999999</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="AP7">
-        <v>0.48170000000000002</v>
+        <v>0.47210000000000002</v>
       </c>
       <c r="AQ7">
-        <v>0.44309999999999999</v>
+        <v>0.51129999999999998</v>
       </c>
       <c r="AR7">
-        <v>0.50770000000000004</v>
+        <v>0.46779999999999999</v>
       </c>
       <c r="AS7">
-        <v>0.5101</v>
+        <v>0.46679999999999999</v>
       </c>
       <c r="AT7">
-        <v>0.4073</v>
+        <v>0.46329999999999999</v>
       </c>
       <c r="AU7">
-        <v>0.48080000000000001</v>
+        <v>0.45979999999999999</v>
       </c>
       <c r="AV7">
-        <v>0.46110000000000001</v>
+        <v>0.40760000000000002</v>
       </c>
       <c r="AW7">
-        <v>0.50749999999999995</v>
+        <v>0.4713</v>
       </c>
       <c r="AX7">
-        <v>0.47849999999999998</v>
+        <v>0.45989999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.44990000000000002</v>
+        <v>0.49680000000000002</v>
       </c>
       <c r="B8">
-        <v>0.55010000000000003</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="C8">
-        <v>0.49419999999999997</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="D8">
-        <v>0.4446</v>
+        <v>0.47820000000000001</v>
       </c>
       <c r="E8">
-        <v>0.45950000000000002</v>
+        <v>0.49490000000000001</v>
       </c>
       <c r="F8">
-        <v>0.4652</v>
+        <v>0.4209</v>
       </c>
       <c r="G8">
-        <v>0.4945</v>
+        <v>0.47060000000000002</v>
       </c>
       <c r="H8">
-        <v>0.50570000000000004</v>
+        <v>0.48060000000000003</v>
       </c>
       <c r="I8">
-        <v>0.51470000000000005</v>
+        <v>0.50190000000000001</v>
       </c>
       <c r="J8">
-        <v>0.47720000000000001</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="K8">
-        <v>0.49590000000000001</v>
+        <v>0.47410000000000002</v>
       </c>
       <c r="L8">
-        <v>0.4909</v>
+        <v>0.5292</v>
       </c>
       <c r="M8">
-        <v>0.4728</v>
+        <v>0.45829999999999999</v>
       </c>
       <c r="N8">
-        <v>0.45500000000000002</v>
+        <v>0.50439999999999996</v>
       </c>
       <c r="O8">
-        <v>0.44690000000000002</v>
+        <v>0.4229</v>
       </c>
       <c r="P8">
-        <v>0.46989999999999998</v>
+        <v>0.50029999999999997</v>
       </c>
       <c r="Q8">
-        <v>0.49349999999999999</v>
+        <v>0.4889</v>
       </c>
       <c r="R8">
-        <v>0.4899</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="S8">
-        <v>0.52200000000000002</v>
+        <v>0.46250000000000002</v>
       </c>
       <c r="T8">
-        <v>0.47570000000000001</v>
+        <v>0.48139999999999999</v>
       </c>
       <c r="U8">
-        <v>0.49759999999999999</v>
+        <v>0.54210000000000003</v>
       </c>
       <c r="V8">
-        <v>0.4662</v>
+        <v>0.43190000000000001</v>
       </c>
       <c r="W8">
-        <v>0.42849999999999999</v>
+        <v>0.48970000000000002</v>
       </c>
       <c r="X8">
-        <v>0.49780000000000002</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="Y8">
-        <v>0.46179999999999999</v>
+        <v>0.4612</v>
       </c>
       <c r="Z8">
-        <v>0.44059999999999999</v>
+        <v>0.4607</v>
       </c>
       <c r="AA8">
-        <v>0.45029999999999998</v>
+        <v>0.48859999999999998</v>
       </c>
       <c r="AB8">
-        <v>0.42499999999999999</v>
+        <v>0.44419999999999998</v>
       </c>
       <c r="AC8">
-        <v>0.47520000000000001</v>
+        <v>0.47939999999999999</v>
       </c>
       <c r="AD8">
-        <v>0.46689999999999998</v>
+        <v>0.4788</v>
       </c>
       <c r="AE8">
-        <v>0.42599999999999999</v>
+        <v>0.48249999999999998</v>
       </c>
       <c r="AF8">
-        <v>0.43169999999999997</v>
+        <v>0.46710000000000002</v>
       </c>
       <c r="AG8">
-        <v>0.50290000000000001</v>
+        <v>0.49249999999999999</v>
       </c>
       <c r="AH8">
-        <v>0.44450000000000001</v>
+        <v>0.49280000000000002</v>
       </c>
       <c r="AI8">
-        <v>0.4103</v>
+        <v>0.47410000000000002</v>
       </c>
       <c r="AJ8">
-        <v>0.44359999999999999</v>
+        <v>0.53469999999999995</v>
       </c>
       <c r="AK8">
-        <v>0.43830000000000002</v>
+        <v>0.4698</v>
       </c>
       <c r="AL8">
-        <v>0.48010000000000003</v>
+        <v>0.49909999999999999</v>
       </c>
       <c r="AM8">
-        <v>0.5111</v>
+        <v>0.47560000000000002</v>
       </c>
       <c r="AN8">
-        <v>0.44119999999999998</v>
+        <v>0.44540000000000002</v>
       </c>
       <c r="AO8">
-        <v>0.49009999999999998</v>
+        <v>0.46089999999999998</v>
       </c>
       <c r="AP8">
-        <v>0.4879</v>
+        <v>0.47410000000000002</v>
       </c>
       <c r="AQ8">
-        <v>0.45779999999999998</v>
+        <v>0.53410000000000002</v>
       </c>
       <c r="AR8">
-        <v>0.49519999999999997</v>
+        <v>0.45540000000000003</v>
       </c>
       <c r="AS8">
-        <v>0.52049999999999996</v>
+        <v>0.4713</v>
       </c>
       <c r="AT8">
-        <v>0.41249999999999998</v>
+        <v>0.46860000000000002</v>
       </c>
       <c r="AU8">
-        <v>0.48720000000000002</v>
+        <v>0.49659999999999999</v>
       </c>
       <c r="AV8">
-        <v>0.44409999999999999</v>
+        <v>0.4279</v>
       </c>
       <c r="AW8">
-        <v>0.53449999999999998</v>
+        <v>0.46810000000000002</v>
       </c>
       <c r="AX8">
-        <v>0.50060000000000004</v>
+        <v>0.49509999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.45100000000000001</v>
+        <v>0.5383</v>
       </c>
       <c r="B9">
-        <v>0.51949999999999996</v>
+        <v>0.48010000000000003</v>
       </c>
       <c r="C9">
-        <v>0.52070000000000005</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="D9">
-        <v>0.41389999999999999</v>
+        <v>0.46970000000000001</v>
       </c>
       <c r="E9">
-        <v>0.48620000000000002</v>
+        <v>0.49659999999999999</v>
       </c>
       <c r="F9">
-        <v>0.47139999999999999</v>
+        <v>0.43030000000000002</v>
       </c>
       <c r="G9">
-        <v>0.4874</v>
+        <v>0.49080000000000001</v>
       </c>
       <c r="H9">
-        <v>0.46639999999999998</v>
+        <v>0.49220000000000003</v>
       </c>
       <c r="I9">
-        <v>0.51919999999999999</v>
+        <v>0.47670000000000001</v>
       </c>
       <c r="J9">
-        <v>0.44869999999999999</v>
+        <v>0.49159999999999998</v>
       </c>
       <c r="K9">
-        <v>0.4859</v>
+        <v>0.50870000000000004</v>
       </c>
       <c r="L9">
-        <v>0.49130000000000001</v>
+        <v>0.5212</v>
       </c>
       <c r="M9">
-        <v>0.44429999999999997</v>
+        <v>0.4592</v>
       </c>
       <c r="N9">
-        <v>0.45590000000000003</v>
+        <v>0.50319999999999998</v>
       </c>
       <c r="O9">
-        <v>0.43530000000000002</v>
+        <v>0.43209999999999998</v>
       </c>
       <c r="P9">
-        <v>0.48559999999999998</v>
+        <v>0.5141</v>
       </c>
       <c r="Q9">
+        <v>0.47149999999999997</v>
+      </c>
+      <c r="R9">
+        <v>0.47820000000000001</v>
+      </c>
+      <c r="S9">
+        <v>0.47049999999999997</v>
+      </c>
+      <c r="T9">
+        <v>0.4723</v>
+      </c>
+      <c r="U9">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="V9">
+        <v>0.44359999999999999</v>
+      </c>
+      <c r="W9">
+        <v>0.4985</v>
+      </c>
+      <c r="X9">
+        <v>0.4975</v>
+      </c>
+      <c r="Y9">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="Z9">
+        <v>0.42449999999999999</v>
+      </c>
+      <c r="AA9">
         <v>0.49180000000000001</v>
       </c>
-      <c r="R9">
-        <v>0.48359999999999997</v>
-      </c>
-      <c r="S9">
-        <v>0.53139999999999998</v>
-      </c>
-      <c r="T9">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="U9">
-        <v>0.48209999999999997</v>
-      </c>
-      <c r="V9">
-        <v>0.4335</v>
-      </c>
-      <c r="W9">
-        <v>0.44450000000000001</v>
-      </c>
-      <c r="X9">
-        <v>0.49890000000000001</v>
-      </c>
-      <c r="Y9">
-        <v>0.46150000000000002</v>
-      </c>
-      <c r="Z9">
-        <v>0.45650000000000002</v>
-      </c>
-      <c r="AA9">
-        <v>0.47439999999999999</v>
-      </c>
       <c r="AB9">
-        <v>0.43880000000000002</v>
+        <v>0.46010000000000001</v>
       </c>
       <c r="AC9">
-        <v>0.48620000000000002</v>
+        <v>0.47089999999999999</v>
       </c>
       <c r="AD9">
-        <v>0.4803</v>
+        <v>0.47170000000000001</v>
       </c>
       <c r="AE9">
-        <v>0.45879999999999999</v>
+        <v>0.49459999999999998</v>
       </c>
       <c r="AF9">
-        <v>0.43059999999999998</v>
+        <v>0.47949999999999998</v>
       </c>
       <c r="AG9">
-        <v>0.50990000000000002</v>
+        <v>0.50060000000000004</v>
       </c>
       <c r="AH9">
-        <v>0.45140000000000002</v>
+        <v>0.47470000000000001</v>
       </c>
       <c r="AI9">
-        <v>0.43980000000000002</v>
+        <v>0.498</v>
       </c>
       <c r="AJ9">
-        <v>0.46110000000000001</v>
+        <v>0.53320000000000001</v>
       </c>
       <c r="AK9">
-        <v>0.45779999999999998</v>
+        <v>0.46760000000000002</v>
       </c>
       <c r="AL9">
-        <v>0.49590000000000001</v>
+        <v>0.54510000000000003</v>
       </c>
       <c r="AM9">
-        <v>0.49280000000000002</v>
+        <v>0.501</v>
       </c>
       <c r="AN9">
-        <v>0.43740000000000001</v>
+        <v>0.4617</v>
       </c>
       <c r="AO9">
-        <v>0.45590000000000003</v>
+        <v>0.4627</v>
       </c>
       <c r="AP9">
-        <v>0.48749999999999999</v>
+        <v>0.44979999999999998</v>
       </c>
       <c r="AQ9">
-        <v>0.45600000000000002</v>
+        <v>0.53010000000000002</v>
       </c>
       <c r="AR9">
-        <v>0.45250000000000001</v>
+        <v>0.46010000000000001</v>
       </c>
       <c r="AS9">
-        <v>0.49580000000000002</v>
+        <v>0.48</v>
       </c>
       <c r="AT9">
-        <v>0.44219999999999998</v>
+        <v>0.4652</v>
       </c>
       <c r="AU9">
-        <v>0.45529999999999998</v>
+        <v>0.49509999999999998</v>
       </c>
       <c r="AV9">
-        <v>0.46179999999999999</v>
+        <v>0.43690000000000001</v>
       </c>
       <c r="AW9">
-        <v>0.54049999999999998</v>
+        <v>0.49080000000000001</v>
       </c>
       <c r="AX9">
-        <v>0.51160000000000005</v>
+        <v>0.49390000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.43340000000000001</v>
+        <v>0.53059999999999996</v>
       </c>
       <c r="B10">
-        <v>0.5393</v>
+        <v>0.4672</v>
       </c>
       <c r="C10">
-        <v>0.52110000000000001</v>
+        <v>0.41510000000000002</v>
       </c>
       <c r="D10">
-        <v>0.44979999999999998</v>
+        <v>0.46789999999999998</v>
       </c>
       <c r="E10">
-        <v>0.4955</v>
+        <v>0.49349999999999999</v>
       </c>
       <c r="F10">
-        <v>0.48139999999999999</v>
+        <v>0.39579999999999999</v>
       </c>
       <c r="G10">
-        <v>0.49569999999999997</v>
+        <v>0.49309999999999998</v>
       </c>
       <c r="H10">
-        <v>0.44500000000000001</v>
+        <v>0.51270000000000004</v>
       </c>
       <c r="I10">
-        <v>0.51359999999999995</v>
+        <v>0.48359999999999997</v>
       </c>
       <c r="J10">
-        <v>0.44819999999999999</v>
+        <v>0.48370000000000002</v>
       </c>
       <c r="K10">
-        <v>0.4995</v>
+        <v>0.51929999999999998</v>
       </c>
       <c r="L10">
+        <v>0.52270000000000005</v>
+      </c>
+      <c r="M10">
+        <v>0.45019999999999999</v>
+      </c>
+      <c r="N10">
+        <v>0.48220000000000002</v>
+      </c>
+      <c r="O10">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="P10">
+        <v>0.50190000000000001</v>
+      </c>
+      <c r="Q10">
+        <v>0.48630000000000001</v>
+      </c>
+      <c r="R10">
+        <v>0.47739999999999999</v>
+      </c>
+      <c r="S10">
+        <v>0.4425</v>
+      </c>
+      <c r="T10">
+        <v>0.45839999999999997</v>
+      </c>
+      <c r="U10">
+        <v>0.53759999999999997</v>
+      </c>
+      <c r="V10">
+        <v>0.45029999999999998</v>
+      </c>
+      <c r="W10">
+        <v>0.52359999999999995</v>
+      </c>
+      <c r="X10">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="Y10">
+        <v>0.46350000000000002</v>
+      </c>
+      <c r="Z10">
+        <v>0.44729999999999998</v>
+      </c>
+      <c r="AA10">
+        <v>0.49530000000000002</v>
+      </c>
+      <c r="AB10">
+        <v>0.48110000000000003</v>
+      </c>
+      <c r="AC10">
+        <v>0.48859999999999998</v>
+      </c>
+      <c r="AD10">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="AE10">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="AF10">
+        <v>0.4667</v>
+      </c>
+      <c r="AG10">
+        <v>0.46920000000000001</v>
+      </c>
+      <c r="AH10">
+        <v>0.45340000000000003</v>
+      </c>
+      <c r="AI10">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="AJ10">
+        <v>0.51659999999999995</v>
+      </c>
+      <c r="AK10">
+        <v>0.49459999999999998</v>
+      </c>
+      <c r="AL10">
+        <v>0.5423</v>
+      </c>
+      <c r="AM10">
+        <v>0.47420000000000001</v>
+      </c>
+      <c r="AN10">
+        <v>0.4612</v>
+      </c>
+      <c r="AO10">
+        <v>0.46479999999999999</v>
+      </c>
+      <c r="AP10">
+        <v>0.48010000000000003</v>
+      </c>
+      <c r="AQ10">
+        <v>0.51439999999999997</v>
+      </c>
+      <c r="AR10">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="AS10">
+        <v>0.4587</v>
+      </c>
+      <c r="AT10">
+        <v>0.46510000000000001</v>
+      </c>
+      <c r="AU10">
+        <v>0.47210000000000002</v>
+      </c>
+      <c r="AV10">
+        <v>0.43909999999999999</v>
+      </c>
+      <c r="AW10">
+        <v>0.48909999999999998</v>
+      </c>
+      <c r="AX10">
         <v>0.47970000000000002</v>
-      </c>
-      <c r="M10">
-        <v>0.46679999999999999</v>
-      </c>
-      <c r="N10">
-        <v>0.46260000000000001</v>
-      </c>
-      <c r="O10">
-        <v>0.42059999999999997</v>
-      </c>
-      <c r="P10">
-        <v>0.46829999999999999</v>
-      </c>
-      <c r="Q10">
-        <v>0.49490000000000001</v>
-      </c>
-      <c r="R10">
-        <v>0.46850000000000003</v>
-      </c>
-      <c r="S10">
-        <v>0.52739999999999998</v>
-      </c>
-      <c r="T10">
-        <v>0.49519999999999997</v>
-      </c>
-      <c r="U10">
-        <v>0.49819999999999998</v>
-      </c>
-      <c r="V10">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="W10">
-        <v>0.45419999999999999</v>
-      </c>
-      <c r="X10">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="Y10">
-        <v>0.48770000000000002</v>
-      </c>
-      <c r="Z10">
-        <v>0.45569999999999999</v>
-      </c>
-      <c r="AA10">
-        <v>0.47389999999999999</v>
-      </c>
-      <c r="AB10">
-        <v>0.42680000000000001</v>
-      </c>
-      <c r="AC10">
-        <v>0.49180000000000001</v>
-      </c>
-      <c r="AD10">
-        <v>0.47539999999999999</v>
-      </c>
-      <c r="AE10">
-        <v>0.45729999999999998</v>
-      </c>
-      <c r="AF10">
-        <v>0.45369999999999999</v>
-      </c>
-      <c r="AG10">
-        <v>0.51919999999999999</v>
-      </c>
-      <c r="AH10">
-        <v>0.45229999999999998</v>
-      </c>
-      <c r="AI10">
-        <v>0.44019999999999998</v>
-      </c>
-      <c r="AJ10">
-        <v>0.46110000000000001</v>
-      </c>
-      <c r="AK10">
-        <v>0.48559999999999998</v>
-      </c>
-      <c r="AL10">
-        <v>0.47610000000000002</v>
-      </c>
-      <c r="AM10">
-        <v>0.51459999999999995</v>
-      </c>
-      <c r="AN10">
-        <v>0.43890000000000001</v>
-      </c>
-      <c r="AO10">
-        <v>0.4703</v>
-      </c>
-      <c r="AP10">
-        <v>0.50429999999999997</v>
-      </c>
-      <c r="AQ10">
-        <v>0.45789999999999997</v>
-      </c>
-      <c r="AR10">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="AS10">
-        <v>0.48549999999999999</v>
-      </c>
-      <c r="AT10">
-        <v>0.46139999999999998</v>
-      </c>
-      <c r="AU10">
-        <v>0.4718</v>
-      </c>
-      <c r="AV10">
-        <v>0.4607</v>
-      </c>
-      <c r="AW10">
-        <v>0.52339999999999998</v>
-      </c>
-      <c r="AX10">
-        <v>0.503</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.43490000000000001</v>
+        <v>0.52890000000000004</v>
       </c>
       <c r="B11">
-        <v>0.53220000000000001</v>
+        <v>0.47260000000000002</v>
       </c>
       <c r="C11">
-        <v>0.51680000000000004</v>
+        <v>0.44190000000000002</v>
       </c>
       <c r="D11">
-        <v>0.43759999999999999</v>
+        <v>0.46429999999999999</v>
       </c>
       <c r="E11">
-        <v>0.50790000000000002</v>
+        <v>0.48609999999999998</v>
       </c>
       <c r="F11">
-        <v>0.46589999999999998</v>
+        <v>0.41320000000000001</v>
       </c>
       <c r="G11">
-        <v>0.49209999999999998</v>
+        <v>0.48649999999999999</v>
       </c>
       <c r="H11">
-        <v>0.4607</v>
+        <v>0.502</v>
       </c>
       <c r="I11">
-        <v>0.49459999999999998</v>
+        <v>0.48249999999999998</v>
       </c>
       <c r="J11">
-        <v>0.4486</v>
+        <v>0.5121</v>
       </c>
       <c r="K11">
-        <v>0.50590000000000002</v>
+        <v>0.50480000000000003</v>
       </c>
       <c r="L11">
-        <v>0.49359999999999998</v>
+        <v>0.51849999999999996</v>
       </c>
       <c r="M11">
-        <v>0.46600000000000003</v>
+        <v>0.4713</v>
       </c>
       <c r="N11">
-        <v>0.47139999999999999</v>
+        <v>0.49659999999999999</v>
       </c>
       <c r="O11">
-        <v>0.41920000000000002</v>
+        <v>0.43659999999999999</v>
       </c>
       <c r="P11">
-        <v>0.46400000000000002</v>
+        <v>0.48330000000000001</v>
       </c>
       <c r="Q11">
-        <v>0.46610000000000001</v>
+        <v>0.49059999999999998</v>
       </c>
       <c r="R11">
-        <v>0.48010000000000003</v>
+        <v>0.49259999999999998</v>
       </c>
       <c r="S11">
-        <v>0.54210000000000003</v>
+        <v>0.45850000000000002</v>
       </c>
       <c r="T11">
-        <v>0.48080000000000001</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="U11">
-        <v>0.4844</v>
+        <v>0.51119999999999999</v>
       </c>
       <c r="V11">
-        <v>0.4708</v>
+        <v>0.46679999999999999</v>
       </c>
       <c r="W11">
-        <v>0.47220000000000001</v>
+        <v>0.49590000000000001</v>
       </c>
       <c r="X11">
-        <v>0.51390000000000002</v>
+        <v>0.50270000000000004</v>
       </c>
       <c r="Y11">
-        <v>0.47270000000000001</v>
+        <v>0.43709999999999999</v>
       </c>
       <c r="Z11">
-        <v>0.4743</v>
+        <v>0.43070000000000003</v>
       </c>
       <c r="AA11">
-        <v>0.48480000000000001</v>
+        <v>0.51549999999999996</v>
       </c>
       <c r="AB11">
-        <v>0.434</v>
+        <v>0.49030000000000001</v>
       </c>
       <c r="AC11">
-        <v>0.51090000000000002</v>
+        <v>0.49880000000000002</v>
       </c>
       <c r="AD11">
-        <v>0.4662</v>
+        <v>0.44219999999999998</v>
       </c>
       <c r="AE11">
-        <v>0.45639999999999997</v>
+        <v>0.49840000000000001</v>
       </c>
       <c r="AF11">
-        <v>0.45490000000000003</v>
+        <v>0.46579999999999999</v>
       </c>
       <c r="AG11">
-        <v>0.49340000000000001</v>
+        <v>0.46560000000000001</v>
       </c>
       <c r="AH11">
-        <v>0.46639999999999998</v>
+        <v>0.4652</v>
       </c>
       <c r="AI11">
-        <v>0.45169999999999999</v>
+        <v>0.50619999999999998</v>
       </c>
       <c r="AJ11">
-        <v>0.47120000000000001</v>
+        <v>0.51319999999999999</v>
       </c>
       <c r="AK11">
-        <v>0.46639999999999998</v>
+        <v>0.48880000000000001</v>
       </c>
       <c r="AL11">
-        <v>0.48709999999999998</v>
+        <v>0.52749999999999997</v>
       </c>
       <c r="AM11">
-        <v>0.48649999999999999</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="AN11">
-        <v>0.4294</v>
+        <v>0.45229999999999998</v>
       </c>
       <c r="AO11">
-        <v>0.4582</v>
+        <v>0.46189999999999998</v>
       </c>
       <c r="AP11">
-        <v>0.51029999999999998</v>
+        <v>0.47310000000000002</v>
       </c>
       <c r="AQ11">
-        <v>0.46629999999999999</v>
+        <v>0.52549999999999997</v>
       </c>
       <c r="AR11">
-        <v>0.46550000000000002</v>
+        <v>0.4874</v>
       </c>
       <c r="AS11">
-        <v>0.46860000000000002</v>
+        <v>0.45860000000000001</v>
       </c>
       <c r="AT11">
-        <v>0.45229999999999998</v>
+        <v>0.46450000000000002</v>
       </c>
       <c r="AU11">
-        <v>0.46689999999999998</v>
+        <v>0.47910000000000003</v>
       </c>
       <c r="AV11">
-        <v>0.47260000000000002</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="AW11">
-        <v>0.50609999999999999</v>
+        <v>0.47170000000000001</v>
       </c>
       <c r="AX11">
-        <v>0.48249999999999998</v>
+        <v>0.48370000000000002</v>
       </c>
     </row>
   </sheetData>
